--- a/ERP/Diseño/Casos de uso/Avance.xlsx
+++ b/ERP/Diseño/Casos de uso/Avance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
   <si>
     <t>Compras</t>
   </si>
@@ -600,7 +600,7 @@
   <dimension ref="B1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -647,11 +647,11 @@
       </c>
       <c r="F3" s="7">
         <f>COUNTIF(C1:C57,C3)</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G3" s="7">
         <f>E3-F3</f>
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
@@ -666,11 +666,11 @@
       </c>
       <c r="F4" s="8">
         <f>F3/E3</f>
-        <v>0.77083333333333337</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="G4" s="8">
         <f>E4-F4</f>
-        <v>0.22916666666666663</v>
+        <v>0.14583333333333337</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
@@ -804,7 +804,9 @@
       <c r="B21" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="22" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B22" s="9" t="s">
@@ -826,19 +828,25 @@
       <c r="B24" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="7"/>
+      <c r="C24" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="25" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B25" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="7"/>
+      <c r="C25" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="26" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B26" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="7"/>
+      <c r="C26" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="27" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B27" s="9" t="s">

--- a/ERP/Diseño/Casos de uso/Avance.xlsx
+++ b/ERP/Diseño/Casos de uso/Avance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="64">
   <si>
     <t>Compras</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Capturar Orden de compra</t>
   </si>
   <si>
-    <t>Capturar Orden de compra de una requisicion</t>
-  </si>
-  <si>
     <t>Hecho</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>Capturar Venta</t>
   </si>
   <si>
-    <t>Capturar Venta desde cotizacion</t>
-  </si>
-  <si>
     <t>Cancelación Venta</t>
   </si>
   <si>
@@ -108,9 +102,6 @@
     <t>Factura Global</t>
   </si>
   <si>
-    <t>Administracion CFDI</t>
-  </si>
-  <si>
     <t>Entrada</t>
   </si>
   <si>
@@ -165,12 +156,6 @@
     <t>Captura Póliza</t>
   </si>
   <si>
-    <t>Aplicacion Póliza</t>
-  </si>
-  <si>
-    <t>Desaplicacion Póliza</t>
-  </si>
-  <si>
     <t>Periodo contable</t>
   </si>
   <si>
@@ -189,9 +174,6 @@
     <t>Faltantes</t>
   </si>
   <si>
-    <t>Nota de credito cuenta por cobrar</t>
-  </si>
-  <si>
     <t>Modificar transacciones</t>
   </si>
   <si>
@@ -199,6 +181,33 @@
   </si>
   <si>
     <t>Devolución Venta</t>
+  </si>
+  <si>
+    <t>Agregar nota de cargo</t>
+  </si>
+  <si>
+    <t>Cancelar nota de cargo</t>
+  </si>
+  <si>
+    <t>Aplicación Póliza</t>
+  </si>
+  <si>
+    <t>Desaplicación Póliza</t>
+  </si>
+  <si>
+    <t>Cancelar nota de crédito</t>
+  </si>
+  <si>
+    <t>Capturar Orden de compra de una requisición</t>
+  </si>
+  <si>
+    <t>Capturar Venta desde cotización</t>
+  </si>
+  <si>
+    <t>Administración CFDI</t>
+  </si>
+  <si>
+    <t>Agregar nota de crédito</t>
   </si>
 </sst>
 </file>
@@ -597,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G62"/>
+  <dimension ref="B1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -621,17 +630,17 @@
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
@@ -639,15 +648,15 @@
         <v>8</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="6">
-        <f>57-9</f>
-        <v>48</v>
+        <f>61-9</f>
+        <v>52</v>
       </c>
       <c r="F3" s="7">
-        <f>COUNTIF(C1:C57,C3)</f>
-        <v>41</v>
+        <f>COUNTIF(C1:C61,C3)</f>
+        <v>45</v>
       </c>
       <c r="G3" s="7">
         <f>E3-F3</f>
@@ -656,434 +665,466 @@
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="B4" s="9" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="8">
         <v>1</v>
       </c>
       <c r="F4" s="8">
         <f>F3/E3</f>
-        <v>0.85416666666666663</v>
+        <v>0.86538461538461542</v>
       </c>
       <c r="G4" s="8">
         <f>E4-F4</f>
-        <v>0.14583333333333337</v>
+        <v>0.13461538461538458</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="B5" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="B6" s="9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="B7" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="B8" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="B9" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="B10" s="9" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="B11" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="B12" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B13" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="B15" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="B16" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B17" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B18" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B19" s="9" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B20" s="9" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B21" s="9" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B22" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B23" s="9" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B24" s="9" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B25" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B26" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B27" s="9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B28" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="7"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B28" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="29" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B29" s="9" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B30" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B30" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B31" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B32" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="7"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B32" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B33" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B34" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B34" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="7"/>
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B35" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B36" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="7"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="37" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B37" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B38" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B38" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="7"/>
     </row>
     <row r="39" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B39" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B40" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B41" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B42" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="7"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B42" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="43" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B43" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B44" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B45" s="9" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B46" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B46" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="7"/>
     </row>
     <row r="47" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B47" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B48" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="7"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B48" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="49" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B49" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="50" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B50" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="51" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B51" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C51" s="7"/>
-    </row>
-    <row r="52" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B52" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B52" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C52" s="7"/>
     </row>
     <row r="53" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B53" s="9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C53" s="7"/>
     </row>
     <row r="54" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B54" s="9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C54" s="7"/>
     </row>
     <row r="55" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B55" s="9" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C55" s="7"/>
     </row>
-    <row r="56" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B56" s="10" t="s">
-        <v>7</v>
+    <row r="56" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B56" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="C56" s="7"/>
     </row>
     <row r="57" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B57" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="2:3">
-      <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="2:3">
-      <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="2:3">
-      <c r="B61" s="1"/>
-    </row>
-    <row r="62" spans="2:3">
+        <v>58</v>
+      </c>
+      <c r="C57" s="7"/>
+    </row>
+    <row r="58" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B58" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="7"/>
+    </row>
+    <row r="59" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B59" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="7"/>
+    </row>
+    <row r="60" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B60" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="7"/>
+    </row>
+    <row r="61" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B61" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" ht="15.75" customHeight="1">
       <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ERP/Diseño/Casos de uso/Avance.xlsx
+++ b/ERP/Diseño/Casos de uso/Avance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="65">
   <si>
     <t>Compras</t>
   </si>
@@ -141,9 +141,6 @@
     <t>Eliminar transacciones</t>
   </si>
   <si>
-    <t>Imprimir cheque (Póliza)</t>
-  </si>
-  <si>
     <t>Conciliación bancaria</t>
   </si>
   <si>
@@ -208,6 +205,12 @@
   </si>
   <si>
     <t>Agregar nota de crédito</t>
+  </si>
+  <si>
+    <t>Crear cheque (Póliza)</t>
+  </si>
+  <si>
+    <t>Eliminar cheque (Póliza)</t>
   </si>
 </sst>
 </file>
@@ -606,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G66"/>
+  <dimension ref="B1:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -634,13 +637,13 @@
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
@@ -651,12 +654,12 @@
         <v>18</v>
       </c>
       <c r="E3" s="6">
-        <f>61-9</f>
-        <v>52</v>
+        <f>62-9</f>
+        <v>53</v>
       </c>
       <c r="F3" s="7">
-        <f>COUNTIF(C1:C61,C3)</f>
-        <v>45</v>
+        <f>COUNTIF(C1:C62,C3)</f>
+        <v>46</v>
       </c>
       <c r="G3" s="7">
         <f>E3-F3</f>
@@ -665,7 +668,7 @@
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="B4" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>18</v>
@@ -675,11 +678,11 @@
       </c>
       <c r="F4" s="8">
         <f>F3/E3</f>
-        <v>0.86538461538461542</v>
+        <v>0.86792452830188682</v>
       </c>
       <c r="G4" s="8">
         <f>E4-F4</f>
-        <v>0.13461538461538458</v>
+        <v>0.13207547169811318</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
@@ -725,7 +728,7 @@
     </row>
     <row r="10" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="B10" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>18</v>
@@ -795,7 +798,7 @@
     </row>
     <row r="19" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B19" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>18</v>
@@ -811,7 +814,7 @@
     </row>
     <row r="21" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B21" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>18</v>
@@ -835,7 +838,7 @@
     </row>
     <row r="24" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B24" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>18</v>
@@ -859,7 +862,7 @@
     </row>
     <row r="27" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B27" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>18</v>
@@ -867,7 +870,7 @@
     </row>
     <row r="28" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B28" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>18</v>
@@ -875,7 +878,7 @@
     </row>
     <row r="29" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B29" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>18</v>
@@ -989,7 +992,7 @@
     </row>
     <row r="44" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B44" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>18</v>
@@ -997,7 +1000,7 @@
     </row>
     <row r="45" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B45" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>18</v>
@@ -1019,7 +1022,7 @@
     </row>
     <row r="48" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B48" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>18</v>
@@ -1035,7 +1038,7 @@
     </row>
     <row r="50" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B50" s="9" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>18</v>
@@ -1043,78 +1046,83 @@
     </row>
     <row r="51" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B51" s="9" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B52" s="10" t="s">
+    <row r="52" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B52" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B53" s="10" t="s">
         <v>6</v>
-      </c>
-      <c r="C52" s="7"/>
-    </row>
-    <row r="53" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B53" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="C53" s="7"/>
     </row>
     <row r="54" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B54" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C54" s="7"/>
     </row>
     <row r="55" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B55" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C55" s="7"/>
     </row>
     <row r="56" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B56" s="9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C56" s="7"/>
     </row>
     <row r="57" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B57" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C57" s="7"/>
     </row>
     <row r="58" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B58" s="9" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C58" s="7"/>
     </row>
     <row r="59" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B59" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" s="7"/>
+    </row>
+    <row r="60" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B60" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" s="7"/>
+    </row>
+    <row r="61" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B61" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="7"/>
+    </row>
+    <row r="62" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B62" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="7"/>
-    </row>
-    <row r="60" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B60" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="7"/>
-    </row>
-    <row r="61" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B61" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B62" s="1"/>
-    </row>
-    <row r="63" spans="2:3">
+      <c r="C62" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" ht="15.75" customHeight="1">
       <c r="B63" s="1"/>
     </row>
     <row r="64" spans="2:3">
@@ -1125,6 +1133,9 @@
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ERP/Diseño/Casos de uso/Avance.xlsx
+++ b/ERP/Diseño/Casos de uso/Avance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="66">
   <si>
     <t>Compras</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>Eliminar cheque (Póliza)</t>
+  </si>
+  <si>
+    <t>Modificar cheque (Póliza)</t>
   </si>
 </sst>
 </file>
@@ -609,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G67"/>
+  <dimension ref="B1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -654,12 +657,12 @@
         <v>18</v>
       </c>
       <c r="E3" s="6">
-        <f>62-9</f>
-        <v>53</v>
+        <f>63-9</f>
+        <v>54</v>
       </c>
       <c r="F3" s="7">
-        <f>COUNTIF(C1:C62,C3)</f>
-        <v>46</v>
+        <f>COUNTIF(C1:C63,C3)</f>
+        <v>47</v>
       </c>
       <c r="G3" s="7">
         <f>E3-F3</f>
@@ -678,11 +681,11 @@
       </c>
       <c r="F4" s="8">
         <f>F3/E3</f>
-        <v>0.86792452830188682</v>
+        <v>0.87037037037037035</v>
       </c>
       <c r="G4" s="8">
         <f>E4-F4</f>
-        <v>0.13207547169811318</v>
+        <v>0.12962962962962965</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
@@ -1046,7 +1049,7 @@
     </row>
     <row r="51" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B51" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>18</v>
@@ -1054,78 +1057,83 @@
     </row>
     <row r="52" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B52" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B53" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B53" s="10" t="s">
+      <c r="C53" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B54" s="10" t="s">
         <v>6</v>
-      </c>
-      <c r="C53" s="7"/>
-    </row>
-    <row r="54" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B54" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="C54" s="7"/>
     </row>
     <row r="55" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B55" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="7"/>
     </row>
     <row r="56" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B56" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="7"/>
     </row>
     <row r="57" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B57" s="9" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C57" s="7"/>
     </row>
     <row r="58" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B58" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C58" s="7"/>
     </row>
     <row r="59" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B59" s="9" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C59" s="7"/>
     </row>
     <row r="60" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B60" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="7"/>
+    </row>
+    <row r="61" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B61" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C60" s="7"/>
-    </row>
-    <row r="61" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B61" s="10" t="s">
+      <c r="C61" s="7"/>
+    </row>
+    <row r="62" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B62" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="7"/>
-    </row>
-    <row r="62" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B62" s="9" t="s">
+      <c r="C62" s="7"/>
+    </row>
+    <row r="63" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B63" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B63" s="1"/>
-    </row>
-    <row r="64" spans="2:3">
+      <c r="C63" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" ht="15.75" customHeight="1">
       <c r="B64" s="1"/>
     </row>
     <row r="65" spans="2:2">
@@ -1136,6 +1144,9 @@
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ERP/Diseño/Casos de uso/Avance.xlsx
+++ b/ERP/Diseño/Casos de uso/Avance.xlsx
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -651,7 +651,7 @@
     </row>
     <row r="3" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="B3" s="9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>18</v>
@@ -661,7 +661,7 @@
         <v>54</v>
       </c>
       <c r="F3" s="7">
-        <f>COUNTIF(C1:C63,C3)</f>
+        <f>COUNTIF(C1:C63,C33)</f>
         <v>47</v>
       </c>
       <c r="G3" s="7">
@@ -671,7 +671,7 @@
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="B4" s="9" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>18</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="5" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="B5" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>18</v>
@@ -698,7 +698,7 @@
     </row>
     <row r="6" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="B6" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>18</v>
@@ -706,7 +706,7 @@
     </row>
     <row r="7" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="B7" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>18</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="8" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="B8" s="9" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>18</v>
@@ -722,7 +722,7 @@
     </row>
     <row r="9" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="B9" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>18</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="10" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="B10" s="9" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>18</v>
@@ -739,37 +739,37 @@
     </row>
     <row r="11" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="B11" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="B12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="B13" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B14" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7"/>
+      <c r="B14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="B15" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>18</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="16" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="B16" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>18</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="17" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B17" s="9" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>18</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="18" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B18" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>18</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="19" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B19" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>18</v>
@@ -809,7 +809,7 @@
     </row>
     <row r="20" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B20" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>18</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="21" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B21" s="9" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>18</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="22" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B22" s="9" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>18</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="23" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B23" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>18</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="24" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B24" s="9" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>18</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="25" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B25" s="9" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>18</v>
@@ -857,7 +857,7 @@
     </row>
     <row r="26" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B26" s="9" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>18</v>
@@ -865,63 +865,63 @@
     </row>
     <row r="27" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B27" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B28" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="B28" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="7"/>
     </row>
     <row r="29" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B29" s="9" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B30" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="7"/>
+      <c r="B30" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="31" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B31" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B32" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="B32" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="7"/>
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B33" s="9" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B34" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="7"/>
+      <c r="B34" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B35" s="9" t="s">
@@ -947,7 +947,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+    <row r="38" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B38" s="10" t="s">
         <v>4</v>
       </c>
@@ -961,7 +961,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+    <row r="40" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
       <c r="B40" s="9" t="s">
         <v>35</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+    <row r="46" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B46" s="10" t="s">
         <v>5</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+    <row r="48" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
       <c r="B48" s="9" t="s">
         <v>51</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+    <row r="54" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B54" s="10" t="s">
         <v>6</v>
       </c>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="C55" s="7"/>
     </row>
-    <row r="56" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+    <row r="56" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
       <c r="B56" s="9" t="s">
         <v>43</v>
       </c>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C61" s="7"/>
     </row>
-    <row r="62" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+    <row r="62" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B62" s="10" t="s">
         <v>7</v>
       </c>
@@ -1133,13 +1133,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="2:3" ht="15.75" customHeight="1">
+    <row r="64" spans="2:3" ht="18.75" customHeight="1">
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" ht="15.75" customHeight="1">
       <c r="B65" s="1"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" ht="15.75" customHeight="1">
       <c r="B66" s="1"/>
     </row>
     <row r="67" spans="2:2">

--- a/ERP/Diseño/Casos de uso/Avance.xlsx
+++ b/ERP/Diseño/Casos de uso/Avance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="67">
   <si>
     <t>Compras</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>Modificar cheque (Póliza)</t>
+  </si>
+  <si>
+    <t>Toma de Inventario</t>
   </si>
 </sst>
 </file>
@@ -612,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G68"/>
+  <dimension ref="B1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -657,12 +660,12 @@
         <v>18</v>
       </c>
       <c r="E3" s="6">
-        <f>63-9</f>
-        <v>54</v>
+        <f>64-9</f>
+        <v>55</v>
       </c>
       <c r="F3" s="7">
-        <f>COUNTIF(C1:C63,C33)</f>
-        <v>47</v>
+        <f>COUNTIF(C1:C64,C34)</f>
+        <v>48</v>
       </c>
       <c r="G3" s="7">
         <f>E3-F3</f>
@@ -681,11 +684,11 @@
       </c>
       <c r="F4" s="8">
         <f>F3/E3</f>
-        <v>0.87037037037037035</v>
+        <v>0.87272727272727268</v>
       </c>
       <c r="G4" s="8">
         <f>E4-F4</f>
-        <v>0.12962962962962965</v>
+        <v>0.12727272727272732</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
@@ -893,7 +896,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+    <row r="31" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
       <c r="B31" s="9" t="s">
         <v>30</v>
       </c>
@@ -902,30 +905,30 @@
       </c>
     </row>
     <row r="32" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B33" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="7"/>
-    </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B33" s="9" t="s">
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B34" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B34" s="9" t="s">
+      <c r="C34" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B35" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B35" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>18</v>
@@ -933,7 +936,7 @@
     </row>
     <row r="36" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B36" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>18</v>
@@ -941,37 +944,37 @@
     </row>
     <row r="37" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B37" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B38" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B38" s="10" t="s">
+      <c r="C38" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B39" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="7"/>
-    </row>
-    <row r="39" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B39" s="9" t="s">
+      <c r="C39" s="7"/>
+    </row>
+    <row r="40" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B40" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B40" s="9" t="s">
+      <c r="C40" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B41" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B41" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>18</v>
@@ -979,7 +982,7 @@
     </row>
     <row r="42" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B42" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>18</v>
@@ -987,7 +990,7 @@
     </row>
     <row r="43" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B43" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>18</v>
@@ -995,7 +998,7 @@
     </row>
     <row r="44" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B44" s="9" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>18</v>
@@ -1003,37 +1006,37 @@
     </row>
     <row r="45" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B45" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B46" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B46" s="10" t="s">
+      <c r="C46" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B47" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="7"/>
-    </row>
-    <row r="47" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B47" s="9" t="s">
+      <c r="C47" s="7"/>
+    </row>
+    <row r="48" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B48" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B48" s="9" t="s">
+      <c r="C48" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B49" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B49" s="9" t="s">
-        <v>40</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>18</v>
@@ -1041,7 +1044,7 @@
     </row>
     <row r="50" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B50" s="9" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>18</v>
@@ -1049,7 +1052,7 @@
     </row>
     <row r="51" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B51" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>18</v>
@@ -1057,7 +1060,7 @@
     </row>
     <row r="52" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B52" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>18</v>
@@ -1065,88 +1068,96 @@
     </row>
     <row r="53" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B53" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B54" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B54" s="10" t="s">
+      <c r="C54" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B55" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="7"/>
-    </row>
-    <row r="55" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B55" s="9" t="s">
+      <c r="C55" s="7"/>
+    </row>
+    <row r="56" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B56" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="7"/>
-    </row>
-    <row r="56" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B56" s="9" t="s">
+      <c r="C56" s="7"/>
+    </row>
+    <row r="57" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B57" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="C56" s="7"/>
-    </row>
-    <row r="57" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B57" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="C57" s="7"/>
     </row>
     <row r="58" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B58" s="9" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C58" s="7"/>
     </row>
     <row r="59" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B59" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59" s="7"/>
     </row>
     <row r="60" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B60" s="9" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C60" s="7"/>
     </row>
     <row r="61" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B61" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" s="7"/>
+    </row>
+    <row r="62" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B62" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C61" s="7"/>
-    </row>
-    <row r="62" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B62" s="10" t="s">
+      <c r="C62" s="7"/>
+    </row>
+    <row r="63" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B63" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="7"/>
-    </row>
-    <row r="63" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B63" s="9" t="s">
+      <c r="C63" s="7"/>
+    </row>
+    <row r="64" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B64" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B64" s="1"/>
-    </row>
-    <row r="65" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C64" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="18.75" customHeight="1">
       <c r="B65" s="1"/>
     </row>
     <row r="66" spans="2:2" ht="15.75" customHeight="1">
       <c r="B66" s="1"/>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" ht="15.75" customHeight="1">
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
